--- a/src/test/resources/Testdata/Book2.xlsx
+++ b/src/test/resources/Testdata/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14295" windowHeight="4365"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,28 +12,23 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>Email</t>
+    <t>username</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>password</t>
   </si>
   <si>
-    <t>Message</t>
+    <t>ramya</t>
   </si>
   <si>
-    <t>abcde@gmail.com</t>
-  </si>
-  <si>
-    <t>Sureshmohan</t>
-  </si>
-  <si>
-    <t>The site is good for Searching Products</t>
+    <t>Ramya</t>
   </si>
 </sst>
 </file>
@@ -378,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -391,31 +386,33 @@
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="abcde@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
